--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr1c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr1c.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H2">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I2">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J2">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01558160556711111</v>
+        <v>0.03694881281388888</v>
       </c>
       <c r="R2">
-        <v>0.140234450104</v>
+        <v>0.332539315325</v>
       </c>
       <c r="S2">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="T2">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.159474</v>
       </c>
       <c r="I3">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J3">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.012878960766</v>
       </c>
       <c r="S3">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="T3">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H4">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I4">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J4">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04829110927433333</v>
+        <v>0.07224199434199999</v>
       </c>
       <c r="R4">
-        <v>0.434619983469</v>
+        <v>0.650177949078</v>
       </c>
       <c r="S4">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="T4">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
     </row>
   </sheetData>
